--- a/datasets/ito11th_June.xlsx
+++ b/datasets/ito11th_June.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="110">
   <si>
     <t xml:space="preserve">CENTRAL POLLUTION CONTROL BOARD</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Date: Wednesday, Jun 12 2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Time: 11:39:54 AM</t>
+    <t xml:space="preserve">Time: 03:53:04 PM</t>
   </si>
   <si>
     <t xml:space="preserve">State</t>
@@ -64,13 +64,13 @@
     <t xml:space="preserve">From</t>
   </si>
   <si>
-    <t xml:space="preserve">11-06-2019T19:30:00Z 00:00</t>
+    <t xml:space="preserve">11-06-2019T00:00:00Z 00:00</t>
   </si>
   <si>
     <t xml:space="preserve">To</t>
   </si>
   <si>
-    <t xml:space="preserve">12-06-2019T11:38:59Z 00:00</t>
+    <t xml:space="preserve">12-06-2019T15:52:59Z 00:00</t>
   </si>
   <si>
     <t xml:space="preserve">Prescribed Standards</t>
@@ -106,6 +106,126 @@
     <t xml:space="preserve">PM2.5</t>
   </si>
   <si>
+    <t xml:space="preserve">11-06-2019 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 00:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 01:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 01:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 02:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 03:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 03:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 04:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 04:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 05:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 06:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 06:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 07:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 07:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 08:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 08:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 09:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 09:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 10:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 11:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 12:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 13:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 14:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 15:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 18:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2019 19:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">11-06-2019 19:30</t>
   </si>
   <si>
@@ -205,10 +325,31 @@
     <t xml:space="preserve">12-06-2019 11:30</t>
   </si>
   <si>
-    <t xml:space="preserve">12-06-2019 11:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
+    <t xml:space="preserve">12-06-2019 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-06-2019 12:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-06-2019 13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-06-2019 13:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-06-2019 14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-06-2019 14:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-06-2019 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-06-2019 15:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-06-2019 15:52</t>
   </si>
 </sst>
 </file>
@@ -467,12 +608,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -696,10 +837,10 @@
         <v>29</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>72</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -710,10 +851,10 @@
         <v>30</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>193.5</v>
+        <v>260</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>78</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,10 +865,10 @@
         <v>31</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>212.5</v>
+        <v>237.5</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>83</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -738,10 +879,10 @@
         <v>32</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>93</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,10 +893,10 @@
         <v>33</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>261.5</v>
+        <v>224</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>98</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,10 +907,10 @@
         <v>34</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>280</v>
+        <v>320.5</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>99.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -780,10 +921,10 @@
         <v>35</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>305</v>
+        <v>461</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>106</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -794,10 +935,10 @@
         <v>36</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>317.5</v>
+        <v>548.5</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>112.5</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -808,10 +949,10 @@
         <v>37</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>316</v>
+        <v>589.5</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>112</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,10 +963,10 @@
         <v>38</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>319.5</v>
+        <v>619</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>116.5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -836,10 +977,10 @@
         <v>39</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>320</v>
+        <v>698</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>117.5</v>
+        <v>144.5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,10 +991,10 @@
         <v>40</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>295.5</v>
+        <v>823</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>108</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,10 +1005,10 @@
         <v>41</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>333.5</v>
+        <v>899</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>117.5</v>
+        <v>174.5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,10 +1019,10 @@
         <v>42</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>316.5</v>
+        <v>877.5</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>106</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,10 +1033,10 @@
         <v>43</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>209.5</v>
+        <v>834.5</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>75.5</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,10 +1047,10 @@
         <v>44</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>153</v>
+        <v>836</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,10 +1061,10 @@
         <v>45</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>109.5</v>
+        <v>898</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>53</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,10 +1075,10 @@
         <v>46</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>89</v>
+        <v>950</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>41</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,10 +1089,10 @@
         <v>47</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>83</v>
+        <v>969.5</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>35.5</v>
+        <v>233.5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -962,10 +1103,10 @@
         <v>48</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>77.5</v>
+        <v>990</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>31</v>
+        <v>249.5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,11 +1116,11 @@
       <c r="B38" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="0" t="n">
-        <v>87.5</v>
+      <c r="C38" s="0" t="s">
+        <v>50</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>33</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -987,167 +1128,825 @@
         <v>49</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>132.5</v>
+        <v>917.5</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>47.5</v>
+        <v>220.5</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>181</v>
+        <v>707</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>68.5</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>187.5</v>
+        <v>553.5</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>74</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>191</v>
+        <v>458</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>63</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>183.5</v>
+        <v>338.5</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>49.5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>171</v>
+        <v>226.5</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>49</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>176</v>
+        <v>168.5</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>51.5</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>179.5</v>
+        <v>156.5</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>47.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>186</v>
+        <v>141.5</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>44.5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>172</v>
+        <v>176.5</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>41.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>150.5</v>
+        <v>236</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>305</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>316</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>319.5</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>209.5</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="D97" s="0" t="n">
         <v>61</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
